--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="H2">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="I2">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="J2">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N2">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O2">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P2">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q2">
-        <v>7311.461186164169</v>
+        <v>3131.675044199642</v>
       </c>
       <c r="R2">
-        <v>65803.15067547752</v>
+        <v>28185.07539779677</v>
       </c>
       <c r="S2">
-        <v>0.6562726967330609</v>
+        <v>0.5996909190899778</v>
       </c>
       <c r="T2">
-        <v>0.6772865282153764</v>
+        <v>0.6070408092694842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="H3">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="I3">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="J3">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>44.379033</v>
       </c>
       <c r="O3">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P3">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q3">
-        <v>1264.907214465909</v>
+        <v>827.8371767780811</v>
       </c>
       <c r="R3">
-        <v>11384.16493019318</v>
+        <v>7450.53459100273</v>
       </c>
       <c r="S3">
-        <v>0.1135373692915898</v>
+        <v>0.1585242499276537</v>
       </c>
       <c r="T3">
-        <v>0.1171728323500345</v>
+        <v>0.1604671438262723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="H4">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="I4">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="J4">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N4">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O4">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P4">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q4">
-        <v>8.417231710624002</v>
+        <v>4.368419235421333</v>
       </c>
       <c r="R4">
-        <v>75.75508539561602</v>
+        <v>39.315773118792</v>
       </c>
       <c r="S4">
-        <v>0.0007555260450826957</v>
+        <v>0.0008365176173410009</v>
       </c>
       <c r="T4">
-        <v>0.0007797179657140149</v>
+        <v>0.0008467700864462672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="H5">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="I5">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="J5">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N5">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O5">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P5">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q5">
-        <v>423.3451815007946</v>
+        <v>73.669507432385</v>
       </c>
       <c r="R5">
-        <v>2540.071089004768</v>
+        <v>442.0170445943101</v>
       </c>
       <c r="S5">
-        <v>0.03799922844946842</v>
+        <v>0.0141071260579412</v>
       </c>
       <c r="T5">
-        <v>0.02614397504728303</v>
+        <v>0.009520016557500868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="H6">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="I6">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="J6">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N6">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O6">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P6">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q6">
-        <v>17.17674827316267</v>
+        <v>6.466690841066334</v>
       </c>
       <c r="R6">
-        <v>154.590734458464</v>
+        <v>58.20021756959701</v>
       </c>
       <c r="S6">
-        <v>0.001541775388436057</v>
+        <v>0.001238319978674834</v>
       </c>
       <c r="T6">
-        <v>0.001591142988760522</v>
+        <v>0.001253496989966185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.379033</v>
       </c>
       <c r="I7">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="J7">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N7">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O7">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P7">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q7">
-        <v>1264.907214465909</v>
+        <v>827.8371767780811</v>
       </c>
       <c r="R7">
-        <v>11384.16493019318</v>
+        <v>7450.53459100273</v>
       </c>
       <c r="S7">
-        <v>0.1135373692915898</v>
+        <v>0.1585242499276537</v>
       </c>
       <c r="T7">
-        <v>0.1171728323500345</v>
+        <v>0.1604671438262723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.379033</v>
       </c>
       <c r="I8">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="J8">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,10 +933,10 @@
         <v>44.379033</v>
       </c>
       <c r="O8">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P8">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q8">
         <v>218.833174446121</v>
@@ -945,10 +945,10 @@
         <v>1969.498570015089</v>
       </c>
       <c r="S8">
-        <v>0.0196423442416928</v>
+        <v>0.04190481632314779</v>
       </c>
       <c r="T8">
-        <v>0.02027129149771502</v>
+        <v>0.04241840722166415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>44.379033</v>
       </c>
       <c r="I9">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="J9">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N9">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O9">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P9">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q9">
-        <v>1.456209209829</v>
+        <v>1.154762162674667</v>
       </c>
       <c r="R9">
-        <v>13.105882888461</v>
+        <v>10.392859464072</v>
       </c>
       <c r="S9">
-        <v>0.0001307085301841524</v>
+        <v>0.0002211277903648789</v>
       </c>
       <c r="T9">
-        <v>0.0001348938132840954</v>
+        <v>0.0002238379614264736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>44.379033</v>
       </c>
       <c r="I10">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="J10">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N10">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O10">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P10">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q10">
-        <v>73.24013089245049</v>
+        <v>19.474037435785</v>
       </c>
       <c r="R10">
-        <v>439.4407853547029</v>
+        <v>116.84422461471</v>
       </c>
       <c r="S10">
-        <v>0.006573993485847605</v>
+        <v>0.003729123629825129</v>
       </c>
       <c r="T10">
-        <v>0.004522995036163827</v>
+        <v>0.002516552170519418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,40 +1101,40 @@
         <v>44.379033</v>
       </c>
       <c r="I11">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="J11">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N11">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O11">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P11">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q11">
-        <v>2.971634842691</v>
+        <v>1.709426110119667</v>
       </c>
       <c r="R11">
-        <v>26.744713584219</v>
+        <v>15.384834991077</v>
       </c>
       <c r="S11">
-        <v>0.0002667322936226771</v>
+        <v>0.0003273415346821397</v>
       </c>
       <c r="T11">
-        <v>0.0002752730534272226</v>
+        <v>0.0003313534752577211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="H12">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="I12">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="J12">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N12">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O12">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P12">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q12">
-        <v>8.417231710624002</v>
+        <v>4.368419235421333</v>
       </c>
       <c r="R12">
-        <v>75.75508539561602</v>
+        <v>39.315773118792</v>
       </c>
       <c r="S12">
-        <v>0.0007555260450826957</v>
+        <v>0.0008365176173410009</v>
       </c>
       <c r="T12">
-        <v>0.0007797179657140149</v>
+        <v>0.0008467700864462672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="H13">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="I13">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="J13">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,22 +1243,22 @@
         <v>44.379033</v>
       </c>
       <c r="O13">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P13">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q13">
-        <v>1.456209209829</v>
+        <v>1.154762162674667</v>
       </c>
       <c r="R13">
-        <v>13.105882888461</v>
+        <v>10.392859464072</v>
       </c>
       <c r="S13">
-        <v>0.0001307085301841524</v>
+        <v>0.0002211277903648789</v>
       </c>
       <c r="T13">
-        <v>0.0001348938132840954</v>
+        <v>0.0002238379614264736</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="H14">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="I14">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="J14">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N14">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O14">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P14">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q14">
-        <v>0.009690236721000002</v>
+        <v>0.006093571761777777</v>
       </c>
       <c r="R14">
-        <v>0.08721213048900003</v>
+        <v>0.054842145856</v>
       </c>
       <c r="S14">
-        <v>8.697902680392637E-07</v>
+        <v>1.166870635933162E-06</v>
       </c>
       <c r="T14">
-        <v>8.976409255609336E-07</v>
+        <v>1.181171954753888E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="H15">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="I15">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="J15">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N15">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O15">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P15">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q15">
-        <v>0.4873710460245</v>
+        <v>0.1027626713466667</v>
       </c>
       <c r="R15">
-        <v>2.924226276147</v>
+        <v>0.61657602808</v>
       </c>
       <c r="S15">
-        <v>4.374615450183552E-05</v>
+        <v>1.967823607438603E-05</v>
       </c>
       <c r="T15">
-        <v>3.009793667867421E-05</v>
+        <v>1.327961006948754E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="H16">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="I16">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="J16">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N16">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O16">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P16">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q16">
-        <v>0.019774524759</v>
+        <v>0.009020481455111111</v>
       </c>
       <c r="R16">
-        <v>0.177970722831</v>
+        <v>0.081184333096</v>
       </c>
       <c r="S16">
-        <v>1.774950363514413E-06</v>
+        <v>1.727350615278215E-06</v>
       </c>
       <c r="T16">
-        <v>1.831784219339955E-06</v>
+        <v>1.748521249882894E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="H17">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="I17">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="J17">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N17">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O17">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P17">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q17">
-        <v>423.3451815007946</v>
+        <v>73.669507432385</v>
       </c>
       <c r="R17">
-        <v>2540.071089004768</v>
+        <v>442.0170445943101</v>
       </c>
       <c r="S17">
-        <v>0.03799922844946842</v>
+        <v>0.0141071260579412</v>
       </c>
       <c r="T17">
-        <v>0.02614397504728303</v>
+        <v>0.009520016557500868</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="H18">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="I18">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="J18">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,22 +1553,22 @@
         <v>44.379033</v>
       </c>
       <c r="O18">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P18">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q18">
-        <v>73.24013089245049</v>
+        <v>19.474037435785</v>
       </c>
       <c r="R18">
-        <v>439.4407853547029</v>
+        <v>116.84422461471</v>
       </c>
       <c r="S18">
-        <v>0.006573993485847605</v>
+        <v>0.003729123629825129</v>
       </c>
       <c r="T18">
-        <v>0.004522995036163827</v>
+        <v>0.002516552170519418</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="H19">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="I19">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="J19">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1609,28 +1609,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N19">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O19">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P19">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q19">
-        <v>0.4873710460245</v>
+        <v>0.1027626713466667</v>
       </c>
       <c r="R19">
-        <v>2.924226276147</v>
+        <v>0.61657602808</v>
       </c>
       <c r="S19">
-        <v>4.374615450183552E-05</v>
+        <v>1.967823607438603E-05</v>
       </c>
       <c r="T19">
-        <v>3.009793667867421E-05</v>
+        <v>1.327961006948754E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="H20">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="I20">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="J20">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N20">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O20">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P20">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q20">
-        <v>24.51235644102024</v>
+        <v>1.733001109225</v>
       </c>
       <c r="R20">
-        <v>98.04942576408098</v>
+        <v>6.9320044369</v>
       </c>
       <c r="S20">
-        <v>0.002200215504839468</v>
+        <v>0.0003318559599278905</v>
       </c>
       <c r="T20">
-        <v>0.001009185038825404</v>
+        <v>0.0001492992132837924</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,46 +1715,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="H21">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="I21">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="J21">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N21">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O21">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P21">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q21">
-        <v>0.9945609270354999</v>
+        <v>0.1521224016716667</v>
       </c>
       <c r="R21">
-        <v>5.967365562213</v>
+        <v>0.91273441003</v>
       </c>
       <c r="S21">
-        <v>8.927123662860474E-05</v>
+        <v>2.913023273012388E-05</v>
       </c>
       <c r="T21">
-        <v>6.141979924571311E-05</v>
+        <v>1.965817110980756E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1771,22 +1771,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="H22">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="I22">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="J22">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N22">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O22">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P22">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q22">
-        <v>17.17674827316267</v>
+        <v>6.466690841066334</v>
       </c>
       <c r="R22">
-        <v>154.590734458464</v>
+        <v>58.20021756959701</v>
       </c>
       <c r="S22">
-        <v>0.001541775388436057</v>
+        <v>0.001238319978674834</v>
       </c>
       <c r="T22">
-        <v>0.001591142988760522</v>
+        <v>0.001253496989966185</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1833,22 +1833,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="H23">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="I23">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="J23">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,22 +1863,22 @@
         <v>44.379033</v>
       </c>
       <c r="O23">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P23">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q23">
-        <v>2.971634842691</v>
+        <v>1.709426110119667</v>
       </c>
       <c r="R23">
-        <v>26.744713584219</v>
+        <v>15.384834991077</v>
       </c>
       <c r="S23">
-        <v>0.0002667322936226771</v>
+        <v>0.0003273415346821397</v>
       </c>
       <c r="T23">
-        <v>0.0002752730534272226</v>
+        <v>0.0003313534752577211</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1895,22 +1895,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="H24">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="I24">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="J24">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1919,28 +1919,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N24">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O24">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P24">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q24">
-        <v>0.019774524759</v>
+        <v>0.009020481455111111</v>
       </c>
       <c r="R24">
-        <v>0.177970722831</v>
+        <v>0.081184333096</v>
       </c>
       <c r="S24">
-        <v>1.774950363514413E-06</v>
+        <v>1.727350615278215E-06</v>
       </c>
       <c r="T24">
-        <v>1.831784219339955E-06</v>
+        <v>1.748521249882894E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1957,22 +1957,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="H25">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="I25">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="J25">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N25">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O25">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P25">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q25">
-        <v>0.9945609270354999</v>
+        <v>0.1521224016716667</v>
       </c>
       <c r="R25">
-        <v>5.967365562213</v>
+        <v>0.91273441003</v>
       </c>
       <c r="S25">
-        <v>8.927123662860474E-05</v>
+        <v>2.913023273012388E-05</v>
       </c>
       <c r="T25">
-        <v>6.141979924571311E-05</v>
+        <v>1.965817110980756E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2019,52 +2019,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="H26">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="I26">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="J26">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N26">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O26">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P26">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q26">
-        <v>0.040353176161</v>
+        <v>0.01335326617344444</v>
       </c>
       <c r="R26">
-        <v>0.3631785854490001</v>
+        <v>0.120179395561</v>
       </c>
       <c r="S26">
-        <v>3.622078688051878E-06</v>
+        <v>2.557044505379886E-06</v>
       </c>
       <c r="T26">
-        <v>3.738057535785914E-06</v>
+        <v>2.588383976598114E-06</v>
       </c>
     </row>
   </sheetData>
